--- a/posts/psycho_phys_graphs/table_mean_diffs.xlsx
+++ b/posts/psycho_phys_graphs/table_mean_diffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_spring_2024/reu_journal/cmiller_reu_presentation/cm_nsf_reu_didactics/posts/psycho_phys_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{BF80B86C-2031-4548-8971-CEA23FC21763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D96FEF27-FBF8-4778-88B3-938FA512AA99}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{BF80B86C-2031-4548-8971-CEA23FC21763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5053F5A-6400-4A31-8FF5-DA08C1993536}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{525D2681-0FF6-4E42-A6C8-6DC2258AF505}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>Heart_Rate_Group</t>
   </si>
   <si>
-    <t>Discontinuity_Score</t>
+    <t>Mean_Discontinuity_Score</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="F4:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
